--- a/working_data/function_7_data.xlsx
+++ b/working_data/function_7_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="10">
   <si>
     <t>X_1</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2175,6 +2175,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>0.444444</v>
+      </c>
+      <c r="B69">
+        <v>0.333333</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0.888888</v>
+      </c>
+      <c r="E69">
+        <v>0.999999</v>
+      </c>
+      <c r="F69">
+        <v>0.111111</v>
+      </c>
+      <c r="G69">
+        <v>0.08538695911315511</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>0.222222</v>
+      </c>
+      <c r="B70">
+        <v>0.222222</v>
+      </c>
+      <c r="C70">
+        <v>0.7777770000000001</v>
+      </c>
+      <c r="D70">
+        <v>0.333333</v>
+      </c>
+      <c r="E70">
+        <v>0.444444</v>
+      </c>
+      <c r="F70">
+        <v>0.111111</v>
+      </c>
+      <c r="G70">
+        <v>0.1937091356989436</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_7_data.xlsx
+++ b/working_data/function_7_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
   <si>
     <t>X_1</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2227,6 +2227,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>0.333333</v>
+      </c>
+      <c r="B71">
+        <v>0.111111</v>
+      </c>
+      <c r="C71">
+        <v>0.333333</v>
+      </c>
+      <c r="D71">
+        <v>0.888888</v>
+      </c>
+      <c r="E71">
+        <v>0.222222</v>
+      </c>
+      <c r="F71">
+        <v>0.555555</v>
+      </c>
+      <c r="G71">
+        <v>0.07444996695619652</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_7_data.xlsx
+++ b/working_data/function_7_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="10">
   <si>
     <t>X_1</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2253,6 +2253,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>0.180486</v>
+      </c>
+      <c r="B72">
+        <v>0.2416</v>
+      </c>
+      <c r="C72">
+        <v>0.402064</v>
+      </c>
+      <c r="D72">
+        <v>0.217995</v>
+      </c>
+      <c r="E72">
+        <v>0.374398</v>
+      </c>
+      <c r="F72">
+        <v>0.850835</v>
+      </c>
+      <c r="G72">
+        <v>2.145219228904054</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/working_data/function_7_data.xlsx
+++ b/working_data/function_7_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>X_1</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2279,6 +2279,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>0.186042</v>
+      </c>
+      <c r="B73">
+        <v>0.247156</v>
+      </c>
+      <c r="C73">
+        <v>0.396508</v>
+      </c>
+      <c r="D73">
+        <v>0.223551</v>
+      </c>
+      <c r="E73">
+        <v>0.368842</v>
+      </c>
+      <c r="F73">
+        <v>0.856391</v>
+      </c>
+      <c r="G73">
+        <v>2.132139085938604</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
